--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -470,6 +470,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Encounter.meta.security</t>
   </si>
   <si>
@@ -635,7 +638,7 @@
     <t>estimatedDischargeDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-estimated-discharge-date|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -745,7 +748,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -831,7 +834,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1127,7 +1130,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1185,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|Group)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1324,7 +1327,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1349,7 +1352,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1627,7 +1630,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1673,7 +1676,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1772,7 +1775,7 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-discharge-disposition|2.2.0-ballot</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1808,7 +1811,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1861,7 +1864,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1891,7 +1894,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2241,7 +2244,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2256,7 +2259,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3464,7 +3467,7 @@
         <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>81</v>
@@ -3532,10 +3535,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3558,16 +3561,16 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3593,13 +3596,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3617,7 +3620,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3646,10 +3649,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3672,16 +3675,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3707,13 +3710,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3731,7 +3734,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3760,10 +3763,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3789,13 +3792,13 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3845,7 +3848,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3874,10 +3877,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3900,16 +3903,16 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3935,13 +3938,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3959,7 +3962,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3988,14 +3991,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4014,16 +4017,16 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4073,7 +4076,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4091,7 +4094,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -4102,14 +4105,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4128,16 +4131,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4187,7 +4190,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4205,7 +4208,7 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -4216,10 +4219,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4245,10 +4248,10 @@
         <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4297,7 +4300,7 @@
         <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4326,13 +4329,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>81</v>
@@ -4354,13 +4357,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4411,7 +4414,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4420,7 +4423,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>118</v>
@@ -4440,10 +4443,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4469,16 +4472,16 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4527,7 +4530,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4545,7 +4548,7 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
@@ -4556,10 +4559,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4582,13 +4585,13 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4639,7 +4642,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4654,24 +4657,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4780,10 +4783,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4894,10 +4897,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4920,19 +4923,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4957,13 +4960,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4981,7 +4984,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4999,21 +5002,21 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5036,19 +5039,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5073,11 +5076,11 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5095,7 +5098,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5113,21 +5116,21 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5153,16 +5156,16 @@
         <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5175,7 +5178,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5211,7 +5214,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5229,21 +5232,21 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5269,13 +5272,13 @@
         <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5289,7 +5292,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -5325,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5343,21 +5346,21 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5380,13 +5383,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5437,7 +5440,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5455,21 +5458,21 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5492,16 +5495,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5551,7 +5554,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5569,21 +5572,21 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5606,16 +5609,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5641,13 +5644,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5665,7 +5668,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>89</v>
@@ -5680,24 +5683,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5720,16 +5723,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5779,7 +5782,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5808,10 +5811,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5920,10 +5923,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6034,14 +6037,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6063,16 +6066,16 @@
         <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6121,7 +6124,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6139,7 +6142,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6176,13 +6179,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6209,13 +6212,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6233,7 +6236,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>89</v>
@@ -6262,10 +6265,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6288,13 +6291,13 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6345,7 +6348,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -6374,10 +6377,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6400,13 +6403,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6433,13 +6436,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6457,7 +6460,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
@@ -6475,21 +6478,21 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6598,10 +6601,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6712,10 +6715,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6741,16 +6744,16 @@
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6799,7 +6802,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6817,21 +6820,21 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6857,13 +6860,13 @@
         <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6913,7 +6916,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6931,21 +6934,21 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6968,17 +6971,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7027,7 +7030,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7045,21 +7048,21 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7085,14 +7088,14 @@
         <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7141,7 +7144,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7159,21 +7162,21 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7196,19 +7199,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7257,7 +7260,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7275,21 +7278,21 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7312,13 +7315,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7369,7 +7372,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7398,10 +7401,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7510,10 +7513,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7624,14 +7627,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7653,16 +7656,16 @@
         <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7711,7 +7714,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7729,7 +7732,7 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7740,10 +7743,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7766,13 +7769,13 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7799,13 +7802,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7823,7 +7826,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7852,10 +7855,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7878,13 +7881,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7935,7 +7938,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>89</v>
@@ -7964,10 +7967,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7990,16 +7993,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8025,11 +8028,11 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8047,7 +8050,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8062,24 +8065,24 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8102,13 +8105,13 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8135,13 +8138,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8159,7 +8162,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8174,7 +8177,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>107</v>
@@ -8183,15 +8186,15 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8214,13 +8217,13 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8247,13 +8250,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8271,7 +8274,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8289,25 +8292,25 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8326,16 +8329,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8385,7 +8388,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8400,24 +8403,24 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8440,13 +8443,13 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8497,7 +8500,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8512,28 +8515,28 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8552,13 +8555,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8609,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8624,10 +8627,10 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8638,10 +8641,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8664,13 +8667,13 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8721,7 +8724,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8736,24 +8739,24 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8862,10 +8865,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8976,14 +8979,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9005,16 +9008,16 @@
         <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9063,7 +9066,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9081,7 +9084,7 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9092,10 +9095,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9118,16 +9121,16 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9153,13 +9156,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9177,7 +9180,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9192,24 +9195,24 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9232,13 +9235,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9289,7 +9292,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9307,21 +9310,21 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9344,13 +9347,13 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9401,7 +9404,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9416,24 +9419,24 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9456,13 +9459,13 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9513,7 +9516,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9528,24 +9531,24 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9568,16 +9571,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9627,7 +9630,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9642,24 +9645,24 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9682,16 +9685,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9741,7 +9744,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9756,28 +9759,28 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9796,16 +9799,16 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9831,13 +9834,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -9855,7 +9858,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9870,28 +9873,28 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9910,16 +9913,16 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9969,7 +9972,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9984,24 +9987,24 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10024,13 +10027,13 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10081,7 +10084,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10099,7 +10102,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10110,10 +10113,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10222,10 +10225,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10336,14 +10339,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10365,16 +10368,16 @@
         <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10423,7 +10426,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10441,7 +10444,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10452,14 +10455,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10478,16 +10481,16 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10537,7 +10540,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10552,24 +10555,24 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10592,13 +10595,13 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10625,13 +10628,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10649,7 +10652,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10678,10 +10681,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10704,13 +10707,13 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10761,7 +10764,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10779,7 +10782,7 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10790,10 +10793,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10816,16 +10819,16 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10875,7 +10878,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10893,7 +10896,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -10904,10 +10907,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10930,16 +10933,16 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10989,7 +10992,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11007,7 +11010,7 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11018,10 +11021,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11130,10 +11133,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11244,14 +11247,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11273,16 +11276,16 @@
         <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11331,7 +11334,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11349,7 +11352,7 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11360,10 +11363,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11386,13 +11389,13 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11443,7 +11446,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11461,21 +11464,21 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11584,10 +11587,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11698,10 +11701,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11724,19 +11727,19 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11761,13 +11764,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -11785,7 +11788,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11803,21 +11806,21 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11840,19 +11843,19 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -11877,11 +11880,11 @@
         <v>81</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -11899,7 +11902,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11917,21 +11920,21 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11957,29 +11960,29 @@
         <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>81</v>
@@ -12015,7 +12018,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12033,21 +12036,21 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12073,13 +12076,13 @@
         <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12093,7 +12096,7 @@
         <v>81</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>81</v>
@@ -12129,7 +12132,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12147,21 +12150,21 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12184,13 +12187,13 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12241,7 +12244,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12259,21 +12262,21 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12296,16 +12299,16 @@
         <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12355,7 +12358,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12373,21 +12376,21 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12410,13 +12413,13 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12467,7 +12470,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12485,7 +12488,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12496,10 +12499,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12522,13 +12525,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12555,13 +12558,13 @@
         <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>81</v>
@@ -12579,7 +12582,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12597,21 +12600,21 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12634,13 +12637,13 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12667,13 +12670,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -12691,7 +12694,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12715,15 +12718,15 @@
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12746,19 +12749,19 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -12783,13 +12786,13 @@
         <v>81</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -12807,7 +12810,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12825,21 +12828,21 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12862,13 +12865,13 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12895,13 +12898,13 @@
         <v>81</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>81</v>
@@ -12919,7 +12922,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -12937,21 +12940,21 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12974,13 +12977,13 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13007,13 +13010,13 @@
         <v>81</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>81</v>
@@ -13031,7 +13034,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13049,21 +13052,21 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13086,13 +13089,13 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13143,7 +13146,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13161,21 +13164,21 @@
         <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13198,13 +13201,13 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13231,11 +13234,11 @@
         <v>81</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>81</v>
@@ -13253,7 +13256,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13271,21 +13274,21 @@
         <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13308,16 +13311,16 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13367,7 +13370,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13385,7 +13388,7 @@
         <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13396,10 +13399,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13508,10 +13511,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13622,14 +13625,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13651,16 +13654,16 @@
         <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
@@ -13709,7 +13712,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13727,7 +13730,7 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
@@ -13738,10 +13741,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13764,13 +13767,13 @@
         <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13821,7 +13824,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>89</v>
@@ -13836,24 +13839,24 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13876,16 +13879,16 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13911,13 +13914,13 @@
         <v>81</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>81</v>
@@ -13935,7 +13938,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -13953,7 +13956,7 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
@@ -13964,10 +13967,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13990,16 +13993,16 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14025,11 +14028,11 @@
         <v>81</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>81</v>
@@ -14047,7 +14050,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14076,10 +14079,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14102,13 +14105,13 @@
         <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14159,7 +14162,7 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14177,7 +14180,7 @@
         <v>81</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
@@ -14188,10 +14191,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14214,13 +14217,13 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14271,7 +14274,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14286,24 +14289,24 @@
         <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14326,16 +14329,16 @@
         <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14385,7 +14388,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14400,10 +14403,10 @@
         <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
